--- a/opinions/parsed_wiki_data/2012.xlsx
+++ b/opinions/parsed_wiki_data/2012.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,6 @@
           <t>kagan</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ginsburg dissent jointly authored with breyer</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -535,7 +530,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -586,7 +580,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -637,7 +630,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -688,7 +680,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -739,7 +730,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -790,7 +780,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -841,7 +830,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -892,7 +880,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -943,7 +930,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -994,7 +980,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1045,7 +1030,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1096,7 +1080,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1147,7 +1130,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1198,7 +1180,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1249,7 +1230,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1300,7 +1280,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1351,7 +1330,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1402,7 +1380,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1453,7 +1430,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1504,7 +1480,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1555,7 +1530,6 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1606,7 +1580,6 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1657,7 +1630,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1708,7 +1680,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1759,7 +1730,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1810,7 +1780,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1861,7 +1830,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1912,7 +1880,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1963,7 +1930,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2014,7 +1980,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2040,7 +2005,11 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>dissent</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>dissent</t>
@@ -2059,11 +2028,6 @@
       <c r="J32" t="inlineStr">
         <is>
           <t>joindissent</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>dissent</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2080,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2167,7 +2130,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2200,7 +2162,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">joindissent </t>
+          <t>joindissent</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2218,7 +2180,6 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2269,7 +2230,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2320,7 +2280,6 @@
           <t>joinconcurrence2</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2371,7 +2330,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2422,7 +2380,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2473,7 +2430,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2524,7 +2480,6 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2575,7 +2530,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2626,7 +2580,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2677,7 +2630,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2728,7 +2680,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2779,7 +2730,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2830,7 +2780,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2881,7 +2830,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2932,7 +2880,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2983,7 +2930,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3034,7 +2980,6 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3085,7 +3030,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3136,7 +3080,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3187,7 +3130,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3238,7 +3180,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3289,7 +3230,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3340,7 +3280,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3391,7 +3330,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3442,7 +3380,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3493,7 +3430,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3544,7 +3480,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3595,7 +3530,6 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3646,7 +3580,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3697,7 +3630,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3748,7 +3680,6 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3799,7 +3730,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3850,7 +3780,6 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3901,7 +3830,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3952,7 +3880,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4003,7 +3930,6 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4054,7 +3980,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4105,7 +4030,6 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4156,7 +4080,6 @@
           <t>joindissent1</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4207,7 +4130,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4258,7 +4180,6 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4309,7 +4230,6 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4360,7 +4280,6 @@
           <t>joindissent2</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4411,7 +4330,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4462,7 +4380,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opinions/parsed_wiki_data/2012.xlsx
+++ b/opinions/parsed_wiki_data/2012.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,37 +547,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -587,47 +587,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -637,22 +637,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -662,17 +662,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -687,42 +687,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -737,17 +737,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -757,27 +757,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -812,22 +812,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>concurrencewithoutopinion</t>
+          <t>concurrence concurrencewithoutopinion</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -842,42 +842,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -897,37 +897,37 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -937,27 +937,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -987,22 +987,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1012,22 +1012,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1042,42 +1042,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1102,12 +1102,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1117,17 +1117,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -1137,37 +1137,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1187,42 +1187,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1242,42 +1242,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1317,17 +1317,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1347,22 +1347,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1387,32 +1387,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1437,17 +1437,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1457,17 +1457,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1487,17 +1487,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1507,17 +1507,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -1537,27 +1537,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -1592,42 +1592,42 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1637,22 +1637,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1662,22 +1662,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1687,22 +1687,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1737,22 +1737,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1767,17 +1767,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -1787,27 +1787,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1817,17 +1817,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1837,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1852,12 +1852,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1867,17 +1867,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1902,32 +1902,32 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1972,12 +1972,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1997,12 +1997,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2017,17 +2017,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -2037,17 +2037,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2057,27 +2057,27 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2137,17 +2137,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2157,22 +2157,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2197,32 +2197,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2242,42 +2242,42 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -2287,17 +2287,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2307,17 +2307,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2337,37 +2337,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2387,32 +2387,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2437,37 +2437,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -2487,22 +2487,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2512,22 +2512,22 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2537,27 +2537,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2567,17 +2567,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2587,42 +2587,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2647,17 +2647,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2667,17 +2667,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2687,17 +2687,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2707,27 +2707,27 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2737,22 +2737,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2762,22 +2762,22 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2787,37 +2787,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2847,12 +2847,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2862,22 +2862,22 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2887,27 +2887,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2917,17 +2917,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2952,32 +2952,32 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -2987,37 +2987,37 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3037,47 +3037,47 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3087,17 +3087,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3107,27 +3107,27 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3137,37 +3137,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3187,42 +3187,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3237,17 +3237,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3257,27 +3257,27 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3312,22 +3312,22 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3337,37 +3337,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3387,42 +3387,42 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3447,37 +3447,37 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3512,22 +3512,22 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -3537,17 +3537,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3557,27 +3557,27 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3592,22 +3592,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3622,12 +3622,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3637,17 +3637,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -3697,32 +3697,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3747,27 +3747,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3787,32 +3787,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3837,12 +3837,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3862,17 +3862,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3887,12 +3887,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3912,22 +3912,22 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -3937,27 +3937,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3967,17 +3967,17 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3987,22 +3987,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4022,12 +4022,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4037,32 +4037,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4072,12 +4072,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4087,47 +4087,47 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4142,17 +4142,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4162,22 +4162,22 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4187,32 +4187,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4237,32 +4237,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4272,12 +4272,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4302,32 +4302,32 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4347,22 +4347,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4372,12 +4372,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>

--- a/opinions/parsed_wiki_data/2012.xlsx
+++ b/opinions/parsed_wiki_data/2012.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,37 +547,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -587,47 +587,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -637,22 +637,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -662,17 +662,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -687,42 +687,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -737,17 +737,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -757,27 +757,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -842,42 +842,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -897,37 +897,37 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -987,22 +987,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1012,22 +1012,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1042,42 +1042,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1137,37 +1137,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1187,42 +1187,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1242,42 +1242,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1347,22 +1347,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1387,32 +1387,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1437,17 +1437,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1462,12 +1462,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1487,17 +1487,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1507,17 +1507,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1537,22 +1537,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1592,42 +1592,42 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1637,12 +1637,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1662,22 +1662,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1687,22 +1687,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1737,12 +1737,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1767,17 +1767,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1787,27 +1787,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1817,17 +1817,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1837,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1852,12 +1852,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1867,17 +1867,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1907,27 +1907,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1952,12 +1952,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1972,12 +1972,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1997,12 +1997,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2037,17 +2037,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2057,27 +2057,27 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2137,17 +2137,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2242,17 +2242,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2287,17 +2287,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2307,17 +2307,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2337,17 +2337,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2357,12 +2357,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2387,32 +2387,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2437,22 +2437,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2487,22 +2487,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2512,22 +2512,22 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2537,27 +2537,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2567,17 +2567,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2587,42 +2587,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2652,12 +2652,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2672,12 +2672,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2687,17 +2687,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2707,27 +2707,27 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2737,22 +2737,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2762,22 +2762,22 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2787,37 +2787,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2862,22 +2862,22 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2962,12 +2962,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2987,17 +2987,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3007,12 +3007,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3037,47 +3037,47 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3087,17 +3087,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3107,27 +3107,27 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3137,17 +3137,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3157,17 +3157,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3187,42 +3187,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3237,17 +3237,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3257,27 +3257,27 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3312,22 +3312,22 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3337,37 +3337,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3387,42 +3387,42 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3457,12 +3457,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3472,12 +3472,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3557,12 +3557,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3572,12 +3572,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3622,12 +3622,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3707,22 +3707,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3747,12 +3747,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3787,17 +3787,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3807,12 +3807,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3837,12 +3837,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3862,17 +3862,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3887,12 +3887,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3942,12 +3942,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3972,12 +3972,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3987,22 +3987,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4037,22 +4037,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4087,47 +4087,47 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4142,17 +4142,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4187,22 +4187,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4237,22 +4237,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4307,12 +4307,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4352,17 +4352,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
